--- a/gold.xlsx
+++ b/gold.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA\UIPATH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE739E94-CD2A-4C00-A9E5-DD44050C30F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F5B291-BAB8-4362-A8BE-399F63BD977A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2246D1A7-67A4-4889-B5BD-DC4C5A243674}"/>
+    <workbookView xWindow="4068" yWindow="744" windowWidth="17208" windowHeight="8880" xr2:uid="{2246D1A7-67A4-4889-B5BD-DC4C5A243674}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -71,24 +71,6 @@
     <t>₹ 7,304 (+39)</t>
   </si>
   <si>
-    <t>₹ 6,660 (-20)</t>
-  </si>
-  <si>
-    <t>₹ 7,265 (-22)</t>
-  </si>
-  <si>
-    <t>₹ 6,680 (-30)</t>
-  </si>
-  <si>
-    <t>₹ 7,287 (-33)</t>
-  </si>
-  <si>
-    <t>₹ 6,710 (+50)</t>
-  </si>
-  <si>
-    <t>₹ 7,320 (+55)</t>
-  </si>
-  <si>
     <t>₹ 6,705 (-10)</t>
   </si>
   <si>
@@ -99,6 +81,18 @@
   </si>
   <si>
     <t>₹ 7,325 (0)</t>
+  </si>
+  <si>
+    <t>₹ 6,670 (-25)</t>
+  </si>
+  <si>
+    <t>₹ 7,277 (-27)</t>
+  </si>
+  <si>
+    <t>₹ 6,695 (-10)</t>
+  </si>
+  <si>
+    <t>₹ 7,304 (-11)</t>
   </si>
 </sst>
 </file>
@@ -190,31 +184,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -226,10 +220,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -366,31 +360,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -402,10 +396,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -534,31 +528,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -570,10 +564,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -702,31 +696,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -738,10 +732,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -870,31 +864,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -906,10 +900,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1038,31 +1032,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1074,10 +1068,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1206,31 +1200,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1242,10 +1236,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1374,31 +1368,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1410,10 +1404,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1542,31 +1536,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1578,10 +1572,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1710,31 +1704,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1746,10 +1740,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1878,31 +1872,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1914,10 +1908,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2046,31 +2040,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2082,10 +2076,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2214,31 +2208,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2250,10 +2244,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2382,31 +2376,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2418,10 +2412,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2550,31 +2544,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2586,10 +2580,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2718,31 +2712,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2754,10 +2748,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2886,31 +2880,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2922,10 +2916,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3054,31 +3048,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3090,10 +3084,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3222,31 +3216,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3258,10 +3252,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3390,31 +3384,31 @@
                   <c:v>24K</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>₹ 7,277 (-27)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>₹ 7,304 (0)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>₹ 7,304 (-11)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>₹ 7,315 (-10)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>₹ 7,325 (0)</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>₹ 7,325 (+22)</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>₹ 7,303 (-1)</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>₹ 7,304 (0)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>₹ 7,304 (+39)</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>₹ 7,265 (-22)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>₹ 7,287 (-33)</c:v>
+                  <c:v>₹ 7,304 (0)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3426,10 +3420,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21-Aug-24</c:v>
+                  <c:v>24-Aug-24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>₹ 6,710 (+50)</c:v>
+                  <c:v>₹ 6,695 (+35)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4583,112 +4577,112 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45533</v>
+        <v>45536</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45532</v>
+        <v>45535</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45531</v>
+        <v>45534</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45530</v>
+        <v>45533</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45529</v>
+        <v>45532</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45528</v>
+        <v>45531</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45527</v>
+        <v>45530</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45526</v>
+        <v>45529</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45525</v>
+        <v>45528</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
